--- a/docs/画面項目定義書/instance_type_management/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_management/instance_type_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21158D05-4184-47C3-93DC-C22104929D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CE60DE-A34B-4E34-B79A-6CE96BC2AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>画面名</t>
   </si>
@@ -146,16 +146,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インスタンスタイプ追加モーダルへ遷移</t>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>削除ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -245,59 +235,11 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返し表示、押下時インスタンスタイプ編集モーダルへ遷移</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インスタンスタイプエンティティより</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>インスタンスタイプエンティティを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>・インスタンスタイプエンティティを取得し、繰り返しで表示
-・インスタンスタイプ詳細画面へ遷移</t>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -317,6 +259,56 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>instance_type_dashboard.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・インスタンスタイプエンティティを取得し、繰り返しで表示
+・instance_type_detail.htmlへ遷移</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時mo_instance_type_edit.htmlへ遷移</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_instance_type_edit.htmlへ遷移</t>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1202,21 +1194,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="29.86328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" customWidth="1"/>
     <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1225,7 +1219,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1234,7 +1228,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1243,7 +1237,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1252,7 +1246,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
@@ -1265,18 +1259,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="41"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1285,7 +1281,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1323,7 +1319,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1340,7 +1336,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1356,10 +1352,10 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36.75">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1371,14 +1367,14 @@
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
@@ -1390,14 +1386,14 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1409,14 +1405,14 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.25">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1427,10 +1423,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -1446,101 +1442,101 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.25">
       <c r="A17" s="31">
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.25">
       <c r="A19" s="31">
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="31">
         <v>15</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.25">
       <c r="A21" s="31">
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.25">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1551,7 +1547,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13.25">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1562,7 +1558,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13.25">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1573,7 +1569,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13.25">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1584,7 +1580,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13.25">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1593,7 +1589,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13.25">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1602,7 +1598,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13.25">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1611,7 +1607,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
